--- a/Recycling/Met_rec/metrec_Min_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>27629.08234046597</v>
+        <v>27629.08234046596</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>45474.52846901825</v>
+        <v>45474.52846901826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>52615.60445701828</v>
+        <v>52615.60445701829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>76414.316888617</v>
+        <v>76414.31688861702</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>102815.2737995717</v>
+        <v>102815.2737995718</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>413896.0450908012</v>
+        <v>413896.0450908013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>824812.1633242128</v>
+        <v>824812.1633242127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1595482.84806466</v>
+        <v>1595482.848064659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1715249.128188554</v>
+        <v>1715249.128188553</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1598520.870762429</v>
+        <v>1598520.870762428</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1443658.303726031</v>
+        <v>1443658.30372603</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1706284.654525027</v>
+        <v>1706284.654525028</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_hist_Max.xlsx
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3408.185410656846</v>
+        <v>3408.185410656845</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>22218.51425187755</v>
+        <v>22218.51425187756</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>13465.56559526469</v>
+        <v>13465.56559526468</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>21583.51205344289</v>
+        <v>21583.51205344288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>89942.37998281419</v>
+        <v>89942.37998281421</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>53128.76791014158</v>
+        <v>53128.76791014159</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>59184.13283741866</v>
+        <v>59184.13283741865</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6252,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>569150.7368010129</v>
+        <v>569150.736801013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6996,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>668090.0479833725</v>
+        <v>668090.0479833726</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1320879.119281247</v>
+        <v>1320879.119281246</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7608,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1057397.951814641</v>
+        <v>1057397.95181464</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8584,7 +8584,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5226707.839833443</v>
+        <v>5226707.839833442</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5585457.67039726</v>
+        <v>5585457.670397259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1956046.110214527</v>
+        <v>1956046.110214528</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5883890.291292988</v>
+        <v>5883890.291292989</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6143761.622965219</v>
+        <v>6143761.62296522</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10624,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6239687.117495339</v>
+        <v>6239687.11749534</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11964,7 +11964,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2947115.702111292</v>
+        <v>2947115.702111293</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1895076.647250679</v>
+        <v>1895076.647250678</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8907579.927981485</v>
+        <v>8907579.927981483</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13684,7 +13684,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9145617.000494666</v>
+        <v>9145617.000494665</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2125580.295579356</v>
+        <v>2125580.295579355</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9647780.470694944</v>
+        <v>9647780.470694942</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>30.11404083411022</v>
+        <v>30.11404083411023</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1942624.507225417</v>
+        <v>1942624.507225416</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13239177.69928448</v>
+        <v>13239177.69928447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1739986.381514284</v>
+        <v>1739986.381514285</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18084,7 +18084,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3232109.686594716</v>
+        <v>3232109.686594717</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18288,7 +18288,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3187120.507774688</v>
+        <v>3187120.507774687</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2346869.607132492</v>
+        <v>2346869.607132493</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1605610.700285107</v>
+        <v>1605610.700285108</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2244781.788121088</v>
+        <v>2244781.788121087</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2944569.762376501</v>
+        <v>2944569.7623765</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2264430.895073653</v>
+        <v>2264430.895073654</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2290574.887405993</v>
+        <v>2290574.887405994</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>15810368.12434687</v>
+        <v>15810368.12434686</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3030517.438378699</v>
+        <v>3030517.4383787</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>16343007.04091733</v>
+        <v>16343007.04091732</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2621071.812851329</v>
+        <v>2621071.81285133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
